--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.878910333333334</v>
+        <v>5.986083666666667</v>
       </c>
       <c r="N2">
-        <v>20.636731</v>
+        <v>17.958251</v>
       </c>
       <c r="O2">
-        <v>0.14811996585983</v>
+        <v>0.1400451834753423</v>
       </c>
       <c r="P2">
-        <v>0.14811996585983</v>
+        <v>0.1400451834753423</v>
       </c>
       <c r="Q2">
-        <v>0.4902415956957778</v>
+        <v>0.4266122200335555</v>
       </c>
       <c r="R2">
-        <v>4.412174361262</v>
+        <v>3.839509980302</v>
       </c>
       <c r="S2">
-        <v>0.14811996585983</v>
+        <v>0.1400451834753423</v>
       </c>
       <c r="T2">
-        <v>0.14811996585983</v>
+        <v>0.1400451834753423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>66.68950099999999</v>
       </c>
       <c r="O3">
-        <v>0.4786633411720634</v>
+        <v>0.5200697664501973</v>
       </c>
       <c r="P3">
-        <v>0.4786633411720634</v>
+        <v>0.5200697664501973</v>
       </c>
       <c r="Q3">
         <v>1.584260965866889</v>
@@ -632,10 +632,10 @@
         <v>14.258348692802</v>
       </c>
       <c r="S3">
-        <v>0.4786633411720634</v>
+        <v>0.5200697664501973</v>
       </c>
       <c r="T3">
-        <v>0.4786633411720634</v>
+        <v>0.5200697664501973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.33273533333333</v>
+        <v>14.528028</v>
       </c>
       <c r="N4">
-        <v>51.998206</v>
+        <v>43.584084</v>
       </c>
       <c r="O4">
-        <v>0.3732166929681066</v>
+        <v>0.3398850500744605</v>
       </c>
       <c r="P4">
-        <v>0.3732166929681066</v>
+        <v>0.3398850500744605</v>
       </c>
       <c r="Q4">
-        <v>1.235257826579111</v>
+        <v>1.035373814152</v>
       </c>
       <c r="R4">
-        <v>11.117320439212</v>
+        <v>9.318364327368</v>
       </c>
       <c r="S4">
-        <v>0.3732166929681066</v>
+        <v>0.3398850500744605</v>
       </c>
       <c r="T4">
-        <v>0.3732166929681066</v>
+        <v>0.3398850500744605</v>
       </c>
     </row>
   </sheetData>
